--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62609.98484691161</v>
+        <v>-63276.34652305335</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>387777.8738956737</v>
+        <v>387777.8738956735</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12647580.2174374</v>
+        <v>12647580.21743739</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.57051687650768</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>83.5705168765076</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>37.05034583237514</v>
+        <v>37.0503458323752</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.74993846779094</v>
+        <v>23.749938467791</v>
       </c>
       <c r="T11" t="n">
-        <v>18.92346735507942</v>
+        <v>18.92346735507948</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85834769223184</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.036068026875132</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>70.82701748958797</v>
       </c>
       <c r="T12" t="n">
-        <v>20.6773745512678</v>
+        <v>11.45560918177122</v>
       </c>
       <c r="U12" t="n">
-        <v>33.73864095187848</v>
+        <v>33.73864095187854</v>
       </c>
       <c r="V12" t="n">
-        <v>37.15992189271583</v>
+        <v>37.15992189271589</v>
       </c>
       <c r="W12" t="n">
-        <v>86.82170806664891</v>
+        <v>63.21558455432523</v>
       </c>
       <c r="X12" t="n">
-        <v>13.82391541678419</v>
+        <v>13.82391541678425</v>
       </c>
       <c r="Y12" t="n">
-        <v>86.82170806664891</v>
+        <v>19.89528711133926</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.85365758915235</v>
+        <v>31.85365758915241</v>
       </c>
       <c r="T13" t="n">
-        <v>20.2491727586013</v>
+        <v>20.24917275860136</v>
       </c>
       <c r="U13" t="n">
-        <v>85.16725939265746</v>
+        <v>85.16725939265751</v>
       </c>
       <c r="V13" t="n">
-        <v>41.62001616176349</v>
+        <v>41.62001616176354</v>
       </c>
       <c r="W13" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="X13" t="n">
-        <v>18.43045638555611</v>
+        <v>18.43045638555617</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.652273791482</v>
+        <v>13.65227379148206</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>36.9099505805618</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>76.47256046510432</v>
       </c>
       <c r="G14" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="I14" t="n">
-        <v>37.05034583237529</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.74993846779108</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.92346735507956</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.66056629594536</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
     </row>
     <row r="15">
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>12.93260177048099</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>6.036068026875132</v>
       </c>
       <c r="R15" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>24.38821095225163</v>
+        <v>11.45560918177122</v>
       </c>
       <c r="U15" t="n">
-        <v>33.73864095187862</v>
+        <v>33.73864095187854</v>
       </c>
       <c r="V15" t="n">
-        <v>37.15992189271597</v>
+        <v>37.15992189271589</v>
       </c>
       <c r="W15" t="n">
-        <v>63.21558455432532</v>
+        <v>63.21558455432523</v>
       </c>
       <c r="X15" t="n">
-        <v>13.82391541678433</v>
+        <v>13.82391541678425</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.89528711133934</v>
+        <v>19.89528711133926</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.85365758915249</v>
+        <v>31.85365758915241</v>
       </c>
       <c r="T16" t="n">
-        <v>20.24917275860145</v>
+        <v>20.24917275860136</v>
       </c>
       <c r="U16" t="n">
-        <v>85.1672593926576</v>
+        <v>85.16725939265751</v>
       </c>
       <c r="V16" t="n">
-        <v>41.62001616176363</v>
+        <v>41.62001616176354</v>
       </c>
       <c r="W16" t="n">
-        <v>86.82170806664905</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="X16" t="n">
-        <v>18.43045638555625</v>
+        <v>18.43045638555617</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.65227379148214</v>
+        <v>13.65227379148206</v>
       </c>
     </row>
     <row r="17">
@@ -1920,22 +1920,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="C18" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>18.57814474599743</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="G18" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.036068026875132</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>24.61421277287254</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>68.64999725544379</v>
       </c>
       <c r="G20" t="n">
-        <v>84.2767184028525</v>
+        <v>84.27671840285251</v>
       </c>
       <c r="H20" t="n">
         <v>12.34718069694389</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>18.57814474599743</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="J21" t="n">
         <v>51.85834769223184</v>
@@ -2205,13 +2205,13 @@
         <v>6.036068026875132</v>
       </c>
       <c r="R21" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>18.5781447459974</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>68.64999725544379</v>
       </c>
       <c r="G23" t="n">
-        <v>84.2767184028525</v>
+        <v>84.27671840285251</v>
       </c>
       <c r="H23" t="n">
         <v>12.34718069694389</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.82170806664891</v>
+        <v>18.57814474599738</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.85834769223184</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>6.036068026875132</v>
       </c>
       <c r="R24" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>70.43649243822922</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>190.3599416880857</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9866628354944</v>
+        <v>205.9866628354945</v>
       </c>
       <c r="H26" t="n">
         <v>134.0571251295858</v>
@@ -2606,7 +2606,7 @@
         <v>14.39962953854962</v>
       </c>
       <c r="T26" t="n">
-        <v>9.573158425838098</v>
+        <v>9.573158425838102</v>
       </c>
       <c r="U26" t="n">
         <v>37.31025736670389</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.036068026875132</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3144462547807</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>27.80961296347451</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>104.2604979097416</v>
       </c>
       <c r="X27" t="n">
-        <v>98.66291003803497</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54497818209788</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2804,7 +2804,7 @@
         <v>190.3599416880857</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9866628354944</v>
+        <v>205.9866628354945</v>
       </c>
       <c r="H29" t="n">
         <v>134.0571251295858</v>
@@ -2843,7 +2843,7 @@
         <v>14.39962953854962</v>
       </c>
       <c r="T29" t="n">
-        <v>9.573158425838098</v>
+        <v>9.573158425838102</v>
       </c>
       <c r="U29" t="n">
         <v>37.31025736670389</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>140.1510287142689</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>17.74913855397604</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9446082044576</v>
+        <v>2.105300252529839</v>
       </c>
       <c r="U30" t="n">
         <v>24.38833202263716</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80961296347451</v>
       </c>
       <c r="W30" t="n">
         <v>53.86527562508385</v>
@@ -3080,7 +3080,7 @@
         <v>14.39962953854962</v>
       </c>
       <c r="T32" t="n">
-        <v>9.573158425838098</v>
+        <v>9.573158425838102</v>
       </c>
       <c r="U32" t="n">
         <v>37.31025736670389</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.1386269945785</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.036068026875132</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3144462547807</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>2.105300252529839</v>
       </c>
       <c r="U33" t="n">
-        <v>99.2925471724426</v>
+        <v>24.38833202263716</v>
       </c>
       <c r="V33" t="n">
         <v>27.80961296347451</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>85.76453187576513</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>4.473606487542867</v>
       </c>
       <c r="Y33" t="n">
         <v>10.54497818209788</v>
@@ -3269,22 +3269,22 @@
         <v>113.2919666061232</v>
       </c>
       <c r="D35" t="n">
-        <v>100.8586288671716</v>
+        <v>100.8586288671717</v>
       </c>
       <c r="E35" t="n">
         <v>134.5653812865805</v>
       </c>
       <c r="F35" t="n">
-        <v>166.2857188649578</v>
+        <v>166.2857188649579</v>
       </c>
       <c r="G35" t="n">
-        <v>181.9124400123665</v>
+        <v>181.9124400123666</v>
       </c>
       <c r="H35" t="n">
-        <v>109.9829023064579</v>
+        <v>109.982902306458</v>
       </c>
       <c r="I35" t="n">
-        <v>3.62581408000591</v>
+        <v>3.625814080005938</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.23603454357598</v>
+        <v>13.23603454357601</v>
       </c>
       <c r="V35" t="n">
-        <v>83.96625283409637</v>
+        <v>83.96625283409639</v>
       </c>
       <c r="W35" t="n">
-        <v>100.9829330507112</v>
+        <v>100.9829330507113</v>
       </c>
       <c r="X35" t="n">
         <v>122.8691835196505</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.3720366433942</v>
+        <v>145.3720366433943</v>
       </c>
     </row>
     <row r="36">
@@ -3348,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.85834769223184</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3144462547807</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>16.56624554016058</v>
+        <v>0.3141091995092781</v>
       </c>
       <c r="V36" t="n">
-        <v>3.735390140346595</v>
+        <v>3.735390140346624</v>
       </c>
       <c r="W36" t="n">
-        <v>29.79105280195594</v>
+        <v>29.79105280195597</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>182.5621569714574</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>51.74272764028823</v>
+        <v>51.74272764028826</v>
       </c>
       <c r="V37" t="n">
-        <v>8.195484409394254</v>
+        <v>8.195484409394282</v>
       </c>
       <c r="W37" t="n">
-        <v>53.39717631427968</v>
+        <v>53.3971763142797</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,22 +3506,22 @@
         <v>113.2919666061232</v>
       </c>
       <c r="D38" t="n">
-        <v>100.8586288671716</v>
+        <v>100.8586288671717</v>
       </c>
       <c r="E38" t="n">
         <v>134.5653812865805</v>
       </c>
       <c r="F38" t="n">
-        <v>166.2857188649578</v>
+        <v>166.2857188649579</v>
       </c>
       <c r="G38" t="n">
-        <v>181.9124400123665</v>
+        <v>181.9124400123666</v>
       </c>
       <c r="H38" t="n">
-        <v>109.9829023064579</v>
+        <v>109.982902306458</v>
       </c>
       <c r="I38" t="n">
-        <v>3.62581408000591</v>
+        <v>3.625814080005938</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.23603454357599</v>
+        <v>13.23603454357601</v>
       </c>
       <c r="V38" t="n">
-        <v>83.96625283409637</v>
+        <v>83.96625283409639</v>
       </c>
       <c r="W38" t="n">
-        <v>100.9829330507112</v>
+        <v>100.9829330507113</v>
       </c>
       <c r="X38" t="n">
         <v>122.8691835196505</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.3720366433942</v>
+        <v>145.3720366433943</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.85834769223184</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.3141091995092496</v>
+        <v>0.3141091995092781</v>
       </c>
       <c r="V39" t="n">
-        <v>3.735390140346595</v>
+        <v>3.735390140346624</v>
       </c>
       <c r="W39" t="n">
-        <v>154.5142438085272</v>
+        <v>261.4793352362237</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>51.74272764028823</v>
+        <v>51.74272764028826</v>
       </c>
       <c r="V40" t="n">
-        <v>8.195484409394254</v>
+        <v>8.195484409394282</v>
       </c>
       <c r="W40" t="n">
-        <v>53.39717631427968</v>
+        <v>53.3971763142797</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.49923396110368</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>3.735390140346652</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>58.76635066354188</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.23603454357605</v>
+        <v>13.23603454357514</v>
       </c>
       <c r="V44" t="n">
         <v>83.96625283409642</v>
@@ -4056,16 +4056,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>41.97943058145705</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.3141091995093065</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V45" t="n">
-        <v>3.735390140346652</v>
+        <v>77.40166489256541</v>
       </c>
       <c r="W45" t="n">
-        <v>29.791052801956</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,73 +5015,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>132.0690234120229</v>
+        <v>216.4836869236468</v>
       </c>
       <c r="C11" t="n">
-        <v>132.0690234120229</v>
+        <v>216.4836869236468</v>
       </c>
       <c r="D11" t="n">
-        <v>132.0690234120229</v>
+        <v>132.069023412023</v>
       </c>
       <c r="E11" t="n">
-        <v>132.0690234120229</v>
+        <v>132.069023412023</v>
       </c>
       <c r="F11" t="n">
-        <v>132.0690234120229</v>
+        <v>132.069023412023</v>
       </c>
       <c r="G11" t="n">
-        <v>44.37032839520583</v>
+        <v>44.37032839520587</v>
       </c>
       <c r="H11" t="n">
-        <v>44.37032839520583</v>
+        <v>44.37032839520587</v>
       </c>
       <c r="I11" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="J11" t="n">
-        <v>6.945736645331912</v>
+        <v>92.89922763131439</v>
       </c>
       <c r="K11" t="n">
-        <v>6.945736645331912</v>
+        <v>101.9371928590268</v>
       </c>
       <c r="L11" t="n">
-        <v>55.57291794545649</v>
+        <v>150.5643741591514</v>
       </c>
       <c r="M11" t="n">
-        <v>138.5559862811133</v>
+        <v>233.5474424948082</v>
       </c>
       <c r="N11" t="n">
-        <v>216.0393714015735</v>
+        <v>311.0308276152684</v>
       </c>
       <c r="O11" t="n">
-        <v>252.2953760529009</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="P11" t="n">
-        <v>252.2953760529009</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="Q11" t="n">
-        <v>338.0066232220117</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="R11" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="S11" t="n">
-        <v>323.2969954304432</v>
+        <v>323.2969954304433</v>
       </c>
       <c r="T11" t="n">
-        <v>304.1823819404639</v>
+        <v>304.182381940464</v>
       </c>
       <c r="U11" t="n">
-        <v>304.1823819404639</v>
+        <v>304.182381940464</v>
       </c>
       <c r="V11" t="n">
-        <v>304.1823819404639</v>
+        <v>216.4836869236468</v>
       </c>
       <c r="W11" t="n">
-        <v>304.1823819404639</v>
+        <v>216.4836869236468</v>
       </c>
       <c r="X11" t="n">
-        <v>304.1823819404639</v>
+        <v>216.4836869236468</v>
       </c>
       <c r="Y11" t="n">
         <v>216.4836869236468</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.32790603142468</v>
+        <v>94.64443166214906</v>
       </c>
       <c r="C12" t="n">
-        <v>59.32790603142468</v>
+        <v>94.64443166214906</v>
       </c>
       <c r="D12" t="n">
-        <v>59.32790603142468</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="E12" t="n">
-        <v>59.32790603142468</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="F12" t="n">
-        <v>59.32790603142468</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="G12" t="n">
-        <v>59.32790603142468</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="H12" t="n">
-        <v>59.32790603142468</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="I12" t="n">
-        <v>59.32790603142468</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="J12" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="K12" t="n">
-        <v>45.95276840508907</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="L12" t="n">
-        <v>131.9062593910715</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="M12" t="n">
-        <v>176.4739921891508</v>
+        <v>92.89922763131439</v>
       </c>
       <c r="N12" t="n">
-        <v>176.4739921891508</v>
+        <v>176.473992189151</v>
       </c>
       <c r="O12" t="n">
-        <v>262.4274831751333</v>
+        <v>262.4274831751335</v>
       </c>
       <c r="P12" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="Q12" t="n">
-        <v>341.1897938556107</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="R12" t="n">
-        <v>341.1897938556107</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="S12" t="n">
-        <v>341.1897938556107</v>
+        <v>275.7443903579211</v>
       </c>
       <c r="T12" t="n">
-        <v>320.3035569351381</v>
+        <v>264.1730679520916</v>
       </c>
       <c r="U12" t="n">
-        <v>286.2241216302104</v>
+        <v>230.0936326471638</v>
       </c>
       <c r="V12" t="n">
-        <v>248.6888469911035</v>
+        <v>192.5583580080569</v>
       </c>
       <c r="W12" t="n">
-        <v>160.9901519742864</v>
+        <v>128.7042321956071</v>
       </c>
       <c r="X12" t="n">
-        <v>147.0266010482418</v>
+        <v>114.7406812695625</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.32790603142468</v>
+        <v>94.64443166214906</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.55909421947305</v>
+        <v>32.559094219473</v>
       </c>
       <c r="C13" t="n">
-        <v>69.22059408967998</v>
+        <v>69.22059408967988</v>
       </c>
       <c r="D13" t="n">
-        <v>69.22059408967998</v>
+        <v>69.22059408967988</v>
       </c>
       <c r="E13" t="n">
-        <v>69.22059408967998</v>
+        <v>130.4153233220366</v>
       </c>
       <c r="F13" t="n">
-        <v>69.22059408967998</v>
+        <v>130.4153233220366</v>
       </c>
       <c r="G13" t="n">
-        <v>69.22059408967998</v>
+        <v>130.4153233220366</v>
       </c>
       <c r="H13" t="n">
-        <v>69.22059408967998</v>
+        <v>130.4153233220366</v>
       </c>
       <c r="I13" t="n">
-        <v>107.6332210543372</v>
+        <v>168.8279502866938</v>
       </c>
       <c r="J13" t="n">
-        <v>190.4332235666032</v>
+        <v>168.8279502866938</v>
       </c>
       <c r="K13" t="n">
-        <v>231.7852678965502</v>
+        <v>168.8279502866938</v>
       </c>
       <c r="L13" t="n">
-        <v>231.7852678965502</v>
+        <v>168.8279502866938</v>
       </c>
       <c r="M13" t="n">
-        <v>231.7852678965502</v>
+        <v>168.8279502866938</v>
       </c>
       <c r="N13" t="n">
-        <v>231.7852678965502</v>
+        <v>168.8279502866938</v>
       </c>
       <c r="O13" t="n">
-        <v>231.7852678965502</v>
+        <v>231.7852678965507</v>
       </c>
       <c r="P13" t="n">
-        <v>231.7852678965502</v>
+        <v>231.7852678965507</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.7483064896366</v>
+        <v>307.748306489637</v>
       </c>
       <c r="R13" t="n">
-        <v>307.7483064896366</v>
+        <v>307.748306489637</v>
       </c>
       <c r="S13" t="n">
-        <v>275.5728947834221</v>
+        <v>275.5728947834224</v>
       </c>
       <c r="T13" t="n">
-        <v>255.1191849262491</v>
+        <v>255.1191849262494</v>
       </c>
       <c r="U13" t="n">
-        <v>169.091650186191</v>
+        <v>169.0916501861913</v>
       </c>
       <c r="V13" t="n">
-        <v>127.0512298207734</v>
+        <v>127.0512298207735</v>
       </c>
       <c r="W13" t="n">
-        <v>39.35253480395627</v>
+        <v>39.35253480395639</v>
       </c>
       <c r="X13" t="n">
-        <v>20.73591219228343</v>
+        <v>20.73591219228349</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>257.050496793044</v>
+        <v>171.8894422329616</v>
       </c>
       <c r="C14" t="n">
-        <v>169.3518017762269</v>
+        <v>171.8894422329616</v>
       </c>
       <c r="D14" t="n">
-        <v>132.069023412023</v>
+        <v>171.8894422329616</v>
       </c>
       <c r="E14" t="n">
-        <v>132.069023412023</v>
+        <v>171.8894422329616</v>
       </c>
       <c r="F14" t="n">
-        <v>132.069023412023</v>
+        <v>94.64443166214906</v>
       </c>
       <c r="G14" t="n">
-        <v>44.37032839520594</v>
+        <v>94.64443166214906</v>
       </c>
       <c r="H14" t="n">
-        <v>44.37032839520594</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="I14" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="J14" t="n">
-        <v>6.945736645331912</v>
+        <v>92.89922763131439</v>
       </c>
       <c r="K14" t="n">
-        <v>6.945736645331912</v>
+        <v>92.89922763131439</v>
       </c>
       <c r="L14" t="n">
-        <v>55.57291794545649</v>
+        <v>141.526408931439</v>
       </c>
       <c r="M14" t="n">
-        <v>138.5559862811133</v>
+        <v>224.5094772670957</v>
       </c>
       <c r="N14" t="n">
-        <v>216.0393714015735</v>
+        <v>301.9928623875559</v>
       </c>
       <c r="O14" t="n">
-        <v>252.2953760529009</v>
+        <v>338.2488670388834</v>
       </c>
       <c r="P14" t="n">
-        <v>338.0066232220118</v>
+        <v>338.2488670388834</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.0066232220118</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="R14" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="S14" t="n">
-        <v>323.296995430443</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="T14" t="n">
-        <v>304.1823819404636</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="U14" t="n">
-        <v>257.050496793044</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="V14" t="n">
-        <v>257.050496793044</v>
+        <v>259.5881372497787</v>
       </c>
       <c r="W14" t="n">
-        <v>257.050496793044</v>
+        <v>259.5881372497787</v>
       </c>
       <c r="X14" t="n">
-        <v>257.050496793044</v>
+        <v>259.5881372497787</v>
       </c>
       <c r="Y14" t="n">
-        <v>257.050496793044</v>
+        <v>171.8894422329616</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.32790603142468</v>
+        <v>160.0898351598388</v>
       </c>
       <c r="C15" t="n">
-        <v>59.32790603142468</v>
+        <v>160.0898351598388</v>
       </c>
       <c r="D15" t="n">
-        <v>59.32790603142468</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="E15" t="n">
-        <v>59.32790603142468</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="F15" t="n">
-        <v>59.32790603142468</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="G15" t="n">
-        <v>59.32790603142468</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="H15" t="n">
-        <v>59.32790603142468</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="I15" t="n">
-        <v>59.32790603142468</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="J15" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="K15" t="n">
-        <v>45.95276840508907</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="L15" t="n">
-        <v>131.9062593910715</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="M15" t="n">
-        <v>131.9062593910715</v>
+        <v>92.89922763131439</v>
       </c>
       <c r="N15" t="n">
-        <v>176.4739921891508</v>
+        <v>178.8527186172969</v>
       </c>
       <c r="O15" t="n">
-        <v>262.4274831751333</v>
+        <v>264.8062096032793</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="Q15" t="n">
-        <v>341.1897938556107</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="R15" t="n">
-        <v>253.4910988387936</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="S15" t="n">
-        <v>253.4910988387936</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="T15" t="n">
-        <v>228.8565423213677</v>
+        <v>329.6184714497814</v>
       </c>
       <c r="U15" t="n">
-        <v>194.7771070164398</v>
+        <v>295.5390361448536</v>
       </c>
       <c r="V15" t="n">
-        <v>157.2418323773327</v>
+        <v>258.0037615057466</v>
       </c>
       <c r="W15" t="n">
-        <v>93.38770656488293</v>
+        <v>194.1496356932969</v>
       </c>
       <c r="X15" t="n">
-        <v>79.42415563883816</v>
+        <v>180.1860847672522</v>
       </c>
       <c r="Y15" t="n">
-        <v>59.32790603142468</v>
+        <v>160.0898351598388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.945736645331912</v>
+        <v>32.559094219473</v>
       </c>
       <c r="C16" t="n">
-        <v>6.945736645331912</v>
+        <v>69.22059408967988</v>
       </c>
       <c r="D16" t="n">
-        <v>6.945736645331912</v>
+        <v>126.9438793739358</v>
       </c>
       <c r="E16" t="n">
-        <v>6.945736645331912</v>
+        <v>188.1386086062925</v>
       </c>
       <c r="F16" t="n">
-        <v>49.88783353169029</v>
+        <v>188.1386086062925</v>
       </c>
       <c r="G16" t="n">
-        <v>49.88783353169029</v>
+        <v>222.5843692018454</v>
       </c>
       <c r="H16" t="n">
-        <v>49.88783353169029</v>
+        <v>222.5843692018454</v>
       </c>
       <c r="I16" t="n">
-        <v>49.88783353169029</v>
+        <v>222.5843692018454</v>
       </c>
       <c r="J16" t="n">
-        <v>49.88783353169029</v>
+        <v>222.5843692018454</v>
       </c>
       <c r="K16" t="n">
-        <v>49.88783353169029</v>
+        <v>231.4831741094497</v>
       </c>
       <c r="L16" t="n">
-        <v>135.8413245176727</v>
+        <v>231.4831741094497</v>
       </c>
       <c r="M16" t="n">
-        <v>135.8413245176727</v>
+        <v>231.4831741094497</v>
       </c>
       <c r="N16" t="n">
-        <v>135.8413245176727</v>
+        <v>231.4831741094497</v>
       </c>
       <c r="O16" t="n">
-        <v>221.7948155036551</v>
+        <v>231.4831741094497</v>
       </c>
       <c r="P16" t="n">
-        <v>307.7483064896376</v>
+        <v>231.4831741094497</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.7483064896376</v>
+        <v>307.4462127025361</v>
       </c>
       <c r="R16" t="n">
-        <v>307.7483064896376</v>
+        <v>307.748306489637</v>
       </c>
       <c r="S16" t="n">
-        <v>275.572894783423</v>
+        <v>275.5728947834224</v>
       </c>
       <c r="T16" t="n">
-        <v>255.1191849262498</v>
+        <v>255.1191849262494</v>
       </c>
       <c r="U16" t="n">
-        <v>169.0916501861916</v>
+        <v>169.0916501861913</v>
       </c>
       <c r="V16" t="n">
-        <v>127.0512298207738</v>
+        <v>127.0512298207735</v>
       </c>
       <c r="W16" t="n">
-        <v>39.35253480395656</v>
+        <v>39.35253480395639</v>
       </c>
       <c r="X16" t="n">
-        <v>20.73591219228357</v>
+        <v>20.73591219228349</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.2616036014667</v>
+        <v>230.261603601467</v>
       </c>
       <c r="C17" t="n">
-        <v>214.4472147160029</v>
+        <v>214.4472147160031</v>
       </c>
       <c r="D17" t="n">
-        <v>211.1917528395811</v>
+        <v>211.1917528395813</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8890662970896</v>
+        <v>173.8890662970899</v>
       </c>
       <c r="F17" t="n">
-        <v>104.5456347259342</v>
+        <v>104.5456347259345</v>
       </c>
       <c r="G17" t="n">
-        <v>19.41763633921469</v>
+        <v>19.4176363392147</v>
       </c>
       <c r="H17" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="I17" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="J17" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="K17" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="L17" t="n">
-        <v>55.57291794545649</v>
+        <v>55.5729179454565</v>
       </c>
       <c r="M17" t="n">
         <v>138.5559862811133</v>
@@ -5537,28 +5537,28 @@
         <v>252.2953760529009</v>
       </c>
       <c r="R17" t="n">
-        <v>252.2953760529009</v>
+        <v>333.7540581789324</v>
       </c>
       <c r="S17" t="n">
-        <v>252.2953760529009</v>
+        <v>333.7540581789324</v>
       </c>
       <c r="T17" t="n">
-        <v>333.7540581789322</v>
+        <v>333.7540581789324</v>
       </c>
       <c r="U17" t="n">
-        <v>333.7540581789322</v>
+        <v>333.7540581789324</v>
       </c>
       <c r="V17" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="W17" t="n">
-        <v>343.9058106088207</v>
+        <v>343.9058106088209</v>
       </c>
       <c r="X17" t="n">
-        <v>318.4174652450465</v>
+        <v>318.4174652450467</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.198965210824</v>
+        <v>270.1989652108242</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>234.7252960650588</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="C18" t="n">
-        <v>147.0266010482418</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="D18" t="n">
         <v>147.0266010482418</v>
@@ -5580,64 +5580,64 @@
         <v>147.0266010482418</v>
       </c>
       <c r="F18" t="n">
-        <v>147.0266010482418</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="G18" t="n">
-        <v>59.32790603142468</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="H18" t="n">
-        <v>59.32790603142468</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="I18" t="n">
-        <v>59.32790603142468</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="J18" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="K18" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="L18" t="n">
-        <v>92.89922763131435</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="M18" t="n">
-        <v>92.89922763131435</v>
+        <v>90.52050120316856</v>
       </c>
       <c r="N18" t="n">
-        <v>176.4739921891508</v>
+        <v>176.473992189151</v>
       </c>
       <c r="O18" t="n">
-        <v>262.4274831751333</v>
+        <v>262.4274831751335</v>
       </c>
       <c r="P18" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="Q18" t="n">
-        <v>347.2868322665956</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="R18" t="n">
-        <v>347.2868322665956</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="S18" t="n">
-        <v>347.2868322665956</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="T18" t="n">
-        <v>347.2868322665956</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="U18" t="n">
-        <v>347.2868322665956</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="V18" t="n">
-        <v>322.4239910818759</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="W18" t="n">
-        <v>234.7252960650588</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="X18" t="n">
-        <v>234.7252960650588</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="Y18" t="n">
-        <v>234.7252960650588</v>
+        <v>253.4910988387938</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="C19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="D19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="E19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="F19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="G19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="H19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="I19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="J19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="K19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="L19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="M19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="N19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="O19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="P19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="R19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="S19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="T19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="U19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="V19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="W19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="X19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.261603601467</v>
+        <v>230.2616036014672</v>
       </c>
       <c r="C20" t="n">
-        <v>214.4472147160034</v>
+        <v>214.4472147160037</v>
       </c>
       <c r="D20" t="n">
-        <v>211.1917528395815</v>
+        <v>211.1917528395818</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8890662970902</v>
+        <v>173.8890662970904</v>
       </c>
       <c r="F20" t="n">
-        <v>104.5456347259346</v>
+        <v>104.5456347259349</v>
       </c>
       <c r="G20" t="n">
-        <v>19.41763633921463</v>
+        <v>19.41763633921464</v>
       </c>
       <c r="H20" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="I20" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="J20" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="K20" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="L20" t="n">
-        <v>55.57291794545649</v>
+        <v>55.5729179454565</v>
       </c>
       <c r="M20" t="n">
         <v>138.5559862811133</v>
@@ -5777,25 +5777,25 @@
         <v>252.2953760529009</v>
       </c>
       <c r="S20" t="n">
-        <v>333.7540581789322</v>
+        <v>252.2953760529009</v>
       </c>
       <c r="T20" t="n">
-        <v>333.7540581789322</v>
+        <v>252.2953760529009</v>
       </c>
       <c r="U20" t="n">
-        <v>333.7540581789322</v>
+        <v>333.7540581789324</v>
       </c>
       <c r="V20" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="W20" t="n">
-        <v>343.9058106088207</v>
+        <v>343.905810608821</v>
       </c>
       <c r="X20" t="n">
-        <v>318.4174652450466</v>
+        <v>318.4174652450469</v>
       </c>
       <c r="Y20" t="n">
-        <v>270.1989652108242</v>
+        <v>270.1989652108244</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.32790603142468</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="C21" t="n">
-        <v>59.32790603142468</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="D21" t="n">
-        <v>59.32790603142468</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="E21" t="n">
-        <v>59.32790603142468</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="F21" t="n">
-        <v>59.32790603142468</v>
+        <v>234.725296065059</v>
       </c>
       <c r="G21" t="n">
-        <v>59.32790603142468</v>
+        <v>234.725296065059</v>
       </c>
       <c r="H21" t="n">
-        <v>59.32790603142468</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="I21" t="n">
-        <v>59.32790603142468</v>
+        <v>59.32790603142469</v>
       </c>
       <c r="J21" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="K21" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="L21" t="n">
-        <v>90.52050120316841</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="M21" t="n">
-        <v>90.52050120316841</v>
+        <v>92.89922763131439</v>
       </c>
       <c r="N21" t="n">
-        <v>176.4739921891508</v>
+        <v>176.473992189151</v>
       </c>
       <c r="O21" t="n">
-        <v>262.4274831751333</v>
+        <v>262.4274831751335</v>
       </c>
       <c r="P21" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665959</v>
       </c>
       <c r="Q21" t="n">
-        <v>341.1897938556107</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="R21" t="n">
-        <v>253.4910988387936</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="S21" t="n">
-        <v>165.7924038219765</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="T21" t="n">
-        <v>147.0266010482418</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="U21" t="n">
-        <v>147.0266010482418</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="V21" t="n">
-        <v>147.0266010482418</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="W21" t="n">
-        <v>59.32790603142468</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="X21" t="n">
-        <v>59.32790603142468</v>
+        <v>341.1897938556109</v>
       </c>
       <c r="Y21" t="n">
-        <v>59.32790603142468</v>
+        <v>341.1897938556109</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="C22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="D22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="E22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="F22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="G22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="H22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="I22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="J22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="K22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="L22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="M22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="N22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="O22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="P22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="R22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="S22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="T22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="U22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="V22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="W22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="X22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331918</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>230.261603601467</v>
       </c>
       <c r="C23" t="n">
-        <v>214.4472147160032</v>
+        <v>214.4472147160033</v>
       </c>
       <c r="D23" t="n">
-        <v>211.1917528395814</v>
+        <v>211.1917528395815</v>
       </c>
       <c r="E23" t="n">
-        <v>173.88906629709</v>
+        <v>173.8890662970901</v>
       </c>
       <c r="F23" t="n">
         <v>104.5456347259347</v>
       </c>
       <c r="G23" t="n">
-        <v>19.41763633921463</v>
+        <v>19.41763633921464</v>
       </c>
       <c r="H23" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="I23" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="J23" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="K23" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="L23" t="n">
         <v>55.57291794545649</v>
@@ -6017,16 +6017,16 @@
         <v>252.2953760529009</v>
       </c>
       <c r="T23" t="n">
-        <v>333.7540581789322</v>
+        <v>252.2953760529009</v>
       </c>
       <c r="U23" t="n">
         <v>333.7540581789322</v>
       </c>
       <c r="V23" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665957</v>
       </c>
       <c r="W23" t="n">
-        <v>343.9058106088207</v>
+        <v>343.9058106088208</v>
       </c>
       <c r="X23" t="n">
         <v>318.4174652450466</v>
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94.644431662149</v>
+        <v>59.32790603142468</v>
       </c>
       <c r="C24" t="n">
-        <v>94.644431662149</v>
+        <v>59.32790603142468</v>
       </c>
       <c r="D24" t="n">
-        <v>94.644431662149</v>
+        <v>59.32790603142468</v>
       </c>
       <c r="E24" t="n">
-        <v>94.644431662149</v>
+        <v>59.32790603142468</v>
       </c>
       <c r="F24" t="n">
-        <v>94.644431662149</v>
+        <v>59.32790603142468</v>
       </c>
       <c r="G24" t="n">
-        <v>94.644431662149</v>
+        <v>59.32790603142468</v>
       </c>
       <c r="H24" t="n">
-        <v>94.644431662149</v>
+        <v>59.32790603142468</v>
       </c>
       <c r="I24" t="n">
-        <v>6.945736645331912</v>
+        <v>59.32790603142468</v>
       </c>
       <c r="J24" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="K24" t="n">
         <v>45.95276840508907</v>
@@ -6075,43 +6075,43 @@
         <v>131.9062593910715</v>
       </c>
       <c r="M24" t="n">
-        <v>217.8597503770539</v>
+        <v>176.4739921891508</v>
       </c>
       <c r="N24" t="n">
-        <v>303.8132413630364</v>
+        <v>176.4739921891508</v>
       </c>
       <c r="O24" t="n">
-        <v>347.2868322665956</v>
+        <v>262.4274831751333</v>
       </c>
       <c r="P24" t="n">
-        <v>347.2868322665956</v>
+        <v>347.2868322665957</v>
       </c>
       <c r="Q24" t="n">
         <v>341.1897938556107</v>
       </c>
       <c r="R24" t="n">
-        <v>253.4910988387936</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="S24" t="n">
         <v>253.4910988387936</v>
       </c>
       <c r="T24" t="n">
-        <v>253.4910988387936</v>
+        <v>165.7924038219765</v>
       </c>
       <c r="U24" t="n">
-        <v>253.4910988387936</v>
+        <v>78.09370880515941</v>
       </c>
       <c r="V24" t="n">
-        <v>253.4910988387936</v>
+        <v>78.09370880515941</v>
       </c>
       <c r="W24" t="n">
-        <v>253.4910988387936</v>
+        <v>78.09370880515941</v>
       </c>
       <c r="X24" t="n">
-        <v>182.3431266789661</v>
+        <v>78.09370880515941</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.3431266789661</v>
+        <v>78.09370880515941</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="C25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="D25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="E25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="F25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="G25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="H25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="I25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="J25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="K25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="L25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="M25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="N25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="O25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="P25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="R25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="S25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="T25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="U25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="V25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="W25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="X25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.945736645331912</v>
+        <v>6.945736645331914</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.028630475681</v>
+        <v>1025.028630475682</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2749037794681</v>
+        <v>886.2749037794692</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0801040922969</v>
+        <v>760.080104092298</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8380797390561</v>
+        <v>599.8380797390572</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5553103571513</v>
+        <v>407.5553103571524</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4879741596822</v>
+        <v>199.4879741596828</v>
       </c>
       <c r="H26" t="n">
         <v>64.07673665505007</v>
@@ -6239,37 +6239,37 @@
         <v>1218.633316266261</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.600235789997</v>
+        <v>1465.600235789998</v>
       </c>
       <c r="P26" t="n">
         <v>1663.107239204596</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.308055083433</v>
+        <v>1786.308055083434</v>
       </c>
       <c r="R26" t="n">
         <v>1804.845069967967</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.299989625996</v>
+        <v>1790.299989625997</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.6301326302</v>
+        <v>1780.630132630201</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.943003976964</v>
+        <v>1742.943003976965</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.811210383808</v>
+        <v>1633.811210383809</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.490850915284</v>
+        <v>1507.490850915285</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.06316774076</v>
+        <v>1359.063167740761</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.905329895788</v>
+        <v>1187.905329895789</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>225.5091756663956</v>
+        <v>196.5246176821152</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09690139935933</v>
+        <v>196.5246176821152</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09690139935933</v>
+        <v>196.5246176821152</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09690139935933</v>
+        <v>196.5246176821152</v>
       </c>
       <c r="F27" t="n">
         <v>36.09690139935933</v>
@@ -6324,31 +6324,31 @@
         <v>801.8387022496701</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.7416638386851</v>
+        <v>801.8387022496701</v>
       </c>
       <c r="R27" t="n">
-        <v>660.0705060055733</v>
+        <v>801.8387022496701</v>
       </c>
       <c r="S27" t="n">
-        <v>660.0705060055733</v>
+        <v>801.8387022496701</v>
       </c>
       <c r="T27" t="n">
-        <v>657.943940093927</v>
+        <v>799.7121363380238</v>
       </c>
       <c r="U27" t="n">
-        <v>633.3092612831824</v>
+        <v>775.0774575272792</v>
       </c>
       <c r="V27" t="n">
-        <v>605.2187431382587</v>
+        <v>746.9869393823554</v>
       </c>
       <c r="W27" t="n">
-        <v>335.82017386855</v>
+        <v>641.6733051300912</v>
       </c>
       <c r="X27" t="n">
-        <v>236.1606687796258</v>
+        <v>422.1653107467876</v>
       </c>
       <c r="Y27" t="n">
-        <v>225.5091756663956</v>
+        <v>196.5246176821152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09690139935933</v>
+        <v>70.96706481344938</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09690139935933</v>
+        <v>116.8853705236052</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09690139935933</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09690139935933</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09690139935933</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09690139935933</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09690139935933</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09690139935933</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09690139935933</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09690139935933</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="L28" t="n">
-        <v>215.7831371851113</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="M28" t="n">
-        <v>261.227276157332</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="N28" t="n">
-        <v>261.227276157332</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="O28" t="n">
-        <v>261.227276157332</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="P28" t="n">
-        <v>261.227276157332</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="Q28" t="n">
         <v>261.227276157332</v>
@@ -6443,16 +6443,16 @@
         <v>886.2749037794676</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0801040922964</v>
+        <v>760.0801040922963</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8380797390556</v>
+        <v>599.8380797390555</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5553103571508</v>
+        <v>407.5553103571506</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4879741596817</v>
+        <v>199.4879741596815</v>
       </c>
       <c r="H29" t="n">
         <v>64.07673665505007</v>
@@ -6470,7 +6470,7 @@
         <v>636.7450330653272</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4390162733926</v>
+        <v>930.4390162733936</v>
       </c>
       <c r="N29" t="n">
         <v>1218.633316266262</v>
@@ -6488,7 +6488,7 @@
         <v>1804.845069967967</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.299989625997</v>
+        <v>1790.299989625996</v>
       </c>
       <c r="T29" t="n">
         <v>1780.6301326302</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09690139935933</v>
+        <v>498.8714295920622</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09690139935933</v>
+        <v>357.3047339210835</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09690139935933</v>
+        <v>196.5246176821152</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09690139935933</v>
+        <v>196.5246176821152</v>
       </c>
       <c r="F30" t="n">
         <v>36.09690139935933</v>
@@ -6564,28 +6564,28 @@
         <v>801.8387022496701</v>
       </c>
       <c r="R30" t="n">
-        <v>783.9102794678761</v>
+        <v>801.8387022496701</v>
       </c>
       <c r="S30" t="n">
-        <v>590.5067210329166</v>
+        <v>801.8387022496701</v>
       </c>
       <c r="T30" t="n">
-        <v>373.3909551698281</v>
+        <v>799.7121363380238</v>
       </c>
       <c r="U30" t="n">
-        <v>348.7562763590835</v>
+        <v>775.0774575272792</v>
       </c>
       <c r="V30" t="n">
-        <v>105.6765582627175</v>
+        <v>746.9869393823554</v>
       </c>
       <c r="W30" t="n">
-        <v>51.26718894445099</v>
+        <v>692.5775700640889</v>
       </c>
       <c r="X30" t="n">
-        <v>46.74839451258951</v>
+        <v>688.0587756322275</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09690139935933</v>
+        <v>677.4072825189972</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09690139935933</v>
+        <v>70.96706481344938</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09690139935933</v>
+        <v>116.8853705236052</v>
       </c>
       <c r="D31" t="n">
-        <v>103.0769925235642</v>
+        <v>116.8853705236052</v>
       </c>
       <c r="E31" t="n">
-        <v>103.0769925235642</v>
+        <v>116.8853705236052</v>
       </c>
       <c r="F31" t="n">
-        <v>103.0769925235642</v>
+        <v>116.8853705236052</v>
       </c>
       <c r="G31" t="n">
-        <v>103.0769925235642</v>
+        <v>116.8853705236052</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0599346275609</v>
+        <v>116.8853705236052</v>
       </c>
       <c r="I31" t="n">
-        <v>178.7293674321671</v>
+        <v>125.8053820711157</v>
       </c>
       <c r="J31" t="n">
-        <v>270.786175784382</v>
+        <v>125.8053820711157</v>
       </c>
       <c r="K31" t="n">
         <v>270.786175784382</v>
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1025.028630475682</v>
+        <v>1025.028630475681</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2749037794686</v>
+        <v>886.2749037794683</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0801040922972</v>
+        <v>760.0801040922971</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8380797390564</v>
+        <v>599.8380797390563</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5553103571517</v>
+        <v>407.5553103571515</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4879741596825</v>
+        <v>199.4879741596823</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07673665505035</v>
+        <v>64.07673665505013</v>
       </c>
       <c r="I32" t="n">
         <v>36.09690139935933</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8193014227431</v>
+        <v>171.8193014227423</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4069368927951</v>
+        <v>377.4069368927941</v>
       </c>
       <c r="L32" t="n">
-        <v>636.745033065328</v>
+        <v>636.7450330653271</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4390162733932</v>
+        <v>930.4390162733924</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.633316266262</v>
+        <v>1218.633316266261</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.600235789998</v>
+        <v>1465.600235789997</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.107239204596</v>
+        <v>1663.107239204595</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.308055083434</v>
@@ -6725,25 +6725,25 @@
         <v>1804.845069967967</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.299989625997</v>
+        <v>1790.299989625996</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.630132630201</v>
+        <v>1780.6301326302</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.943003976965</v>
+        <v>1742.943003976964</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.811210383809</v>
+        <v>1633.811210383808</v>
       </c>
       <c r="W32" t="n">
         <v>1507.490850915284</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.063167740761</v>
+        <v>1359.06316774076</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.905329895789</v>
+        <v>1187.905329895788</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.09690139935933</v>
+        <v>639.0887731477281</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09690139935933</v>
+        <v>639.0887731477281</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09690139935933</v>
+        <v>478.3086569087599</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09690139935933</v>
+        <v>304.7454530301744</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09690139935933</v>
+        <v>144.3177367474185</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09690139935933</v>
+        <v>144.3177367474185</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09690139935933</v>
+        <v>144.3177367474185</v>
       </c>
       <c r="I33" t="n">
         <v>36.09690139935933</v>
@@ -6798,31 +6798,31 @@
         <v>801.8387022496701</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8387022496701</v>
+        <v>795.7416638386851</v>
       </c>
       <c r="R33" t="n">
-        <v>666.1675444165583</v>
+        <v>795.7416638386851</v>
       </c>
       <c r="S33" t="n">
-        <v>666.1675444165583</v>
+        <v>795.7416638386851</v>
       </c>
       <c r="T33" t="n">
-        <v>664.040978504912</v>
+        <v>793.6150979270388</v>
       </c>
       <c r="U33" t="n">
-        <v>563.7454763105255</v>
+        <v>768.9804191162942</v>
       </c>
       <c r="V33" t="n">
-        <v>535.6549581656018</v>
+        <v>740.8899009713705</v>
       </c>
       <c r="W33" t="n">
-        <v>266.2563888958932</v>
+        <v>654.2590606928198</v>
       </c>
       <c r="X33" t="n">
-        <v>46.74839451258951</v>
+        <v>649.7402662609584</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.09690139935933</v>
+        <v>639.0887731477281</v>
       </c>
     </row>
     <row r="34">
@@ -6841,43 +6841,43 @@
         <v>36.09690139935933</v>
       </c>
       <c r="E34" t="n">
-        <v>106.548436471665</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F34" t="n">
-        <v>106.548436471665</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G34" t="n">
-        <v>150.2510029071669</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H34" t="n">
-        <v>196.8439416348455</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I34" t="n">
-        <v>196.8439416348455</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J34" t="n">
-        <v>196.8439416348455</v>
+        <v>107.7548021059636</v>
       </c>
       <c r="K34" t="n">
-        <v>196.8439416348455</v>
+        <v>107.7548021059636</v>
       </c>
       <c r="L34" t="n">
-        <v>196.8439416348455</v>
+        <v>107.7548021059636</v>
       </c>
       <c r="M34" t="n">
-        <v>196.8439416348455</v>
+        <v>107.7548021059636</v>
       </c>
       <c r="N34" t="n">
-        <v>196.8439416348455</v>
+        <v>107.7548021059636</v>
       </c>
       <c r="O34" t="n">
-        <v>270.786175784382</v>
+        <v>107.7548021059636</v>
       </c>
       <c r="P34" t="n">
-        <v>270.786175784382</v>
+        <v>261.227276157332</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.786175784382</v>
+        <v>261.227276157332</v>
       </c>
       <c r="R34" t="n">
         <v>270.786175784382</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>847.861116293082</v>
+        <v>847.8611162930811</v>
       </c>
       <c r="C35" t="n">
-        <v>733.4247863879068</v>
+        <v>733.4247863879059</v>
       </c>
       <c r="D35" t="n">
-        <v>631.5473834917739</v>
+        <v>631.547383491773</v>
       </c>
       <c r="E35" t="n">
-        <v>495.6227559295713</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F35" t="n">
-        <v>327.6573833387048</v>
+        <v>327.6573833387039</v>
       </c>
       <c r="G35" t="n">
-        <v>143.907443932274</v>
+        <v>143.9074439322731</v>
       </c>
       <c r="H35" t="n">
-        <v>32.81360321867985</v>
+        <v>32.81360321867987</v>
       </c>
       <c r="I35" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="J35" t="n">
-        <v>79.01951422653536</v>
+        <v>73.89623482417873</v>
       </c>
       <c r="K35" t="n">
-        <v>308.4406302914839</v>
+        <v>73.89623482417873</v>
       </c>
       <c r="L35" t="n">
-        <v>591.6122070589136</v>
+        <v>122.5234161243033</v>
       </c>
       <c r="M35" t="n">
-        <v>909.1396708618755</v>
+        <v>440.0508799272652</v>
       </c>
       <c r="N35" t="n">
-        <v>986.6230559823357</v>
+        <v>752.0786605150304</v>
       </c>
       <c r="O35" t="n">
         <v>1022.879060633663</v>
@@ -6968,19 +6968,19 @@
         <v>1457.558237701371</v>
       </c>
       <c r="U35" t="n">
-        <v>1444.188505839173</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V35" t="n">
-        <v>1359.374109037055</v>
+        <v>1359.374109037054</v>
       </c>
       <c r="W35" t="n">
-        <v>1257.371146359569</v>
+        <v>1257.371146359568</v>
       </c>
       <c r="X35" t="n">
-        <v>1133.260859976084</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y35" t="n">
-        <v>986.4204189221505</v>
+        <v>986.4204189221495</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>189.5788810367833</v>
+        <v>576.3043705404299</v>
       </c>
       <c r="C36" t="n">
-        <v>189.5788810367833</v>
+        <v>576.3043705404299</v>
       </c>
       <c r="D36" t="n">
-        <v>189.5788810367833</v>
+        <v>415.5242543014616</v>
       </c>
       <c r="E36" t="n">
-        <v>189.5788810367833</v>
+        <v>241.9610504228761</v>
       </c>
       <c r="F36" t="n">
-        <v>29.15116475402742</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="G36" t="n">
-        <v>29.15116475402742</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="H36" t="n">
-        <v>29.15116475402742</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="I36" t="n">
-        <v>29.15116475402742</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="J36" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="K36" t="n">
-        <v>68.15819651378459</v>
+        <v>68.15819651378457</v>
       </c>
       <c r="L36" t="n">
-        <v>186.8945068160898</v>
+        <v>186.8945068160897</v>
       </c>
       <c r="M36" t="n">
         <v>370.2088447263874</v>
@@ -7038,28 +7038,28 @@
         <v>794.8929656043382</v>
       </c>
       <c r="R36" t="n">
-        <v>659.2218077712264</v>
+        <v>794.8929656043382</v>
       </c>
       <c r="S36" t="n">
-        <v>465.8182493362669</v>
+        <v>794.8929656043382</v>
       </c>
       <c r="T36" t="n">
-        <v>465.8182493362669</v>
+        <v>794.8929656043382</v>
       </c>
       <c r="U36" t="n">
-        <v>449.0846679825694</v>
+        <v>794.5756835846319</v>
       </c>
       <c r="V36" t="n">
-        <v>445.3115466286839</v>
+        <v>790.8025622307464</v>
       </c>
       <c r="W36" t="n">
-        <v>415.2195741014557</v>
+        <v>760.7105897035182</v>
       </c>
       <c r="X36" t="n">
-        <v>415.2195741014557</v>
+        <v>760.7105897035182</v>
       </c>
       <c r="Y36" t="n">
-        <v>189.5788810367833</v>
+        <v>576.3043705404299</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="C37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="D37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="E37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="F37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="G37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="H37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="I37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="J37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="K37" t="n">
-        <v>29.15116475402742</v>
+        <v>143.6313550206559</v>
       </c>
       <c r="L37" t="n">
-        <v>29.15116475402742</v>
+        <v>143.6313550206559</v>
       </c>
       <c r="M37" t="n">
-        <v>29.15116475402742</v>
+        <v>143.6313550206559</v>
       </c>
       <c r="N37" t="n">
-        <v>29.15116475402742</v>
+        <v>143.6313550206559</v>
       </c>
       <c r="O37" t="n">
         <v>143.6313550206559</v>
@@ -7126,19 +7126,19 @@
         <v>143.6313550206559</v>
       </c>
       <c r="U37" t="n">
-        <v>91.36597356581927</v>
+        <v>91.36597356581932</v>
       </c>
       <c r="V37" t="n">
-        <v>83.08770648562306</v>
+        <v>83.08770648562307</v>
       </c>
       <c r="W37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="X37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.15116475402742</v>
+        <v>29.15116475402741</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>847.8611162930827</v>
+        <v>847.8611162930812</v>
       </c>
       <c r="C38" t="n">
-        <v>733.4247863879077</v>
+        <v>733.4247863879064</v>
       </c>
       <c r="D38" t="n">
-        <v>631.5473834917746</v>
+        <v>631.5473834917732</v>
       </c>
       <c r="E38" t="n">
-        <v>495.622755929572</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F38" t="n">
-        <v>327.6573833387055</v>
+        <v>327.6573833387039</v>
       </c>
       <c r="G38" t="n">
-        <v>143.9074439322746</v>
+        <v>143.9074439322731</v>
       </c>
       <c r="H38" t="n">
         <v>32.81360321867987</v>
       </c>
       <c r="I38" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="J38" t="n">
         <v>188.707045372307</v>
       </c>
       <c r="K38" t="n">
-        <v>188.707045372307</v>
+        <v>418.1281614372555</v>
       </c>
       <c r="L38" t="n">
-        <v>237.3342266724316</v>
+        <v>466.75534273738</v>
       </c>
       <c r="M38" t="n">
-        <v>554.8616904753935</v>
+        <v>784.2828065403419</v>
       </c>
       <c r="N38" t="n">
-        <v>866.8894710631588</v>
+        <v>861.7661916608021</v>
       </c>
       <c r="O38" t="n">
-        <v>1137.689871181791</v>
+        <v>1022.879060633663</v>
       </c>
       <c r="P38" t="n">
-        <v>1359.030355191286</v>
+        <v>1244.219544643158</v>
       </c>
       <c r="Q38" t="n">
-        <v>1447.980390349639</v>
+        <v>1391.253841116892</v>
       </c>
       <c r="R38" t="n">
-        <v>1447.980390349639</v>
+        <v>1433.624336596321</v>
       </c>
       <c r="S38" t="n">
-        <v>1457.558237701372</v>
+        <v>1443.202183948054</v>
       </c>
       <c r="T38" t="n">
-        <v>1457.558237701372</v>
+        <v>1457.558237701371</v>
       </c>
       <c r="U38" t="n">
-        <v>1444.188505839174</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V38" t="n">
-        <v>1359.374109037056</v>
+        <v>1359.374109037055</v>
       </c>
       <c r="W38" t="n">
-        <v>1257.37114635957</v>
+        <v>1257.371146359569</v>
       </c>
       <c r="X38" t="n">
-        <v>1133.260859976085</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y38" t="n">
-        <v>986.420418922151</v>
+        <v>986.4204189221496</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>189.5788810367833</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="C39" t="n">
-        <v>189.5788810367833</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="D39" t="n">
-        <v>189.5788810367833</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="E39" t="n">
-        <v>189.5788810367833</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="F39" t="n">
-        <v>29.15116475402743</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="G39" t="n">
-        <v>29.15116475402743</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="H39" t="n">
-        <v>29.15116475402743</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="I39" t="n">
-        <v>29.15116475402743</v>
+        <v>81.53333414012019</v>
       </c>
       <c r="J39" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="K39" t="n">
-        <v>68.15819651378459</v>
+        <v>68.15819651378457</v>
       </c>
       <c r="L39" t="n">
-        <v>186.8945068160898</v>
+        <v>186.8945068160897</v>
       </c>
       <c r="M39" t="n">
         <v>370.2088447263874</v>
@@ -7290,13 +7290,13 @@
         <v>790.8025622307464</v>
       </c>
       <c r="W39" t="n">
-        <v>634.7275684847593</v>
+        <v>526.6820215880962</v>
       </c>
       <c r="X39" t="n">
-        <v>415.2195741014557</v>
+        <v>307.1740272047925</v>
       </c>
       <c r="Y39" t="n">
-        <v>189.5788810367833</v>
+        <v>81.53333414012019</v>
       </c>
     </row>
     <row r="40">
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.15116475402743</v>
+        <v>87.85480876301406</v>
       </c>
       <c r="C40" t="n">
-        <v>29.15116475402743</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="D40" t="n">
-        <v>29.15116475402743</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="E40" t="n">
-        <v>29.15116475402743</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="F40" t="n">
-        <v>29.15116475402743</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="G40" t="n">
-        <v>96.68721178442593</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="H40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="I40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="J40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="K40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="L40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="M40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="N40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="O40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="P40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="Q40" t="n">
-        <v>143.6313550206559</v>
+        <v>110.2389747987094</v>
       </c>
       <c r="R40" t="n">
         <v>143.6313550206559</v>
@@ -7363,19 +7363,19 @@
         <v>143.6313550206559</v>
       </c>
       <c r="U40" t="n">
-        <v>91.36597356581929</v>
+        <v>91.36597356581932</v>
       </c>
       <c r="V40" t="n">
         <v>83.08770648562307</v>
       </c>
       <c r="W40" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="X40" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>847.861116293082</v>
+        <v>847.8611162930813</v>
       </c>
       <c r="C41" t="n">
-        <v>733.4247863879068</v>
+        <v>733.4247863879061</v>
       </c>
       <c r="D41" t="n">
-        <v>631.5473834917738</v>
+        <v>631.5473834917731</v>
       </c>
       <c r="E41" t="n">
-        <v>495.6227559295712</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F41" t="n">
-        <v>327.6573833387047</v>
+        <v>327.657383338704</v>
       </c>
       <c r="G41" t="n">
-        <v>143.9074439322738</v>
+        <v>143.9074439322731</v>
       </c>
       <c r="H41" t="n">
-        <v>32.81360321867992</v>
+        <v>32.8136032186799</v>
       </c>
       <c r="I41" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="J41" t="n">
-        <v>188.707045372307</v>
+        <v>188.7070453723069</v>
       </c>
       <c r="K41" t="n">
-        <v>418.1281614372555</v>
+        <v>360.3889731226459</v>
       </c>
       <c r="L41" t="n">
-        <v>466.75534273738</v>
+        <v>409.0161544227705</v>
       </c>
       <c r="M41" t="n">
-        <v>549.7384110730368</v>
+        <v>491.9992227584273</v>
       </c>
       <c r="N41" t="n">
-        <v>752.0786605150313</v>
+        <v>804.0270033461925</v>
       </c>
       <c r="O41" t="n">
-        <v>1022.879060633664</v>
+        <v>1074.827403464825</v>
       </c>
       <c r="P41" t="n">
-        <v>1244.219544643159</v>
+        <v>1296.16788747432</v>
       </c>
       <c r="Q41" t="n">
-        <v>1391.253841116893</v>
+        <v>1443.202183948054</v>
       </c>
       <c r="R41" t="n">
-        <v>1433.624336596322</v>
+        <v>1443.202183948054</v>
       </c>
       <c r="S41" t="n">
-        <v>1443.202183948055</v>
+        <v>1443.202183948054</v>
       </c>
       <c r="T41" t="n">
-        <v>1457.558237701372</v>
+        <v>1457.558237701371</v>
       </c>
       <c r="U41" t="n">
         <v>1444.188505839173</v>
@@ -7451,10 +7451,10 @@
         <v>1257.371146359569</v>
       </c>
       <c r="X41" t="n">
-        <v>1133.260859976084</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y41" t="n">
-        <v>986.4204189221502</v>
+        <v>986.4204189221498</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>218.5634390210637</v>
+        <v>552.9067591386175</v>
       </c>
       <c r="C42" t="n">
-        <v>29.15116475402743</v>
+        <v>363.4944848715812</v>
       </c>
       <c r="D42" t="n">
-        <v>29.15116475402743</v>
+        <v>202.7143686326129</v>
       </c>
       <c r="E42" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="F42" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="G42" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="H42" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="I42" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="J42" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="K42" t="n">
-        <v>68.15819651378459</v>
+        <v>68.15819651378457</v>
       </c>
       <c r="L42" t="n">
-        <v>186.8945068160898</v>
+        <v>186.8945068160897</v>
       </c>
       <c r="M42" t="n">
         <v>370.2088447263874</v>
@@ -7512,28 +7512,28 @@
         <v>794.8929656043382</v>
       </c>
       <c r="R42" t="n">
-        <v>711.5604060476678</v>
+        <v>794.8929656043382</v>
       </c>
       <c r="S42" t="n">
-        <v>711.5604060476678</v>
+        <v>794.8929656043382</v>
       </c>
       <c r="T42" t="n">
-        <v>711.5604060476678</v>
+        <v>794.8929656043382</v>
       </c>
       <c r="U42" t="n">
-        <v>711.2431240279615</v>
+        <v>794.5756835846319</v>
       </c>
       <c r="V42" t="n">
-        <v>707.470002674076</v>
+        <v>790.8025622307464</v>
       </c>
       <c r="W42" t="n">
-        <v>438.0714334043673</v>
+        <v>731.4426120655526</v>
       </c>
       <c r="X42" t="n">
-        <v>218.5634390210637</v>
+        <v>731.4426120655526</v>
       </c>
       <c r="Y42" t="n">
-        <v>218.5634390210637</v>
+        <v>731.4426120655526</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.15116475402743</v>
+        <v>46.62457294961318</v>
       </c>
       <c r="C43" t="n">
-        <v>29.15116475402743</v>
+        <v>46.62457294961318</v>
       </c>
       <c r="D43" t="n">
-        <v>29.15116475402743</v>
+        <v>46.62457294961318</v>
       </c>
       <c r="E43" t="n">
-        <v>29.15116475402743</v>
+        <v>46.62457294961318</v>
       </c>
       <c r="F43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="G43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="H43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="I43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="J43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="K43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="L43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="M43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="N43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="O43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="P43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.19536939487936</v>
+        <v>143.631355020656</v>
       </c>
       <c r="R43" t="n">
-        <v>130.5877496168259</v>
+        <v>143.631355020656</v>
       </c>
       <c r="S43" t="n">
-        <v>130.5877496168259</v>
+        <v>143.631355020656</v>
       </c>
       <c r="T43" t="n">
-        <v>143.6313550206561</v>
+        <v>143.631355020656</v>
       </c>
       <c r="U43" t="n">
-        <v>91.3659735658194</v>
+        <v>91.36597356581937</v>
       </c>
       <c r="V43" t="n">
-        <v>83.08770648562313</v>
+        <v>83.0877064856231</v>
       </c>
       <c r="W43" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="X43" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
     </row>
     <row r="44">
@@ -7640,43 +7640,43 @@
         <v>143.9074439322737</v>
       </c>
       <c r="H44" t="n">
-        <v>32.81360321867992</v>
+        <v>32.8136032186799</v>
       </c>
       <c r="I44" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="J44" t="n">
-        <v>188.707045372307</v>
+        <v>83.47408217591129</v>
       </c>
       <c r="K44" t="n">
-        <v>418.1281614372555</v>
+        <v>83.47408217591129</v>
       </c>
       <c r="L44" t="n">
-        <v>591.6122070589144</v>
+        <v>366.6456589433409</v>
       </c>
       <c r="M44" t="n">
-        <v>674.5952753945711</v>
+        <v>449.6287272789977</v>
       </c>
       <c r="N44" t="n">
-        <v>752.0786605150313</v>
+        <v>761.6565078667629</v>
       </c>
       <c r="O44" t="n">
-        <v>1022.879060633664</v>
+        <v>1032.456907985395</v>
       </c>
       <c r="P44" t="n">
-        <v>1244.219544643159</v>
+        <v>1253.79739199489</v>
       </c>
       <c r="Q44" t="n">
-        <v>1391.253841116893</v>
+        <v>1400.831688468624</v>
       </c>
       <c r="R44" t="n">
-        <v>1433.624336596322</v>
+        <v>1443.202183948054</v>
       </c>
       <c r="S44" t="n">
-        <v>1443.202183948055</v>
+        <v>1443.202183948054</v>
       </c>
       <c r="T44" t="n">
-        <v>1457.558237701372</v>
+        <v>1457.558237701371</v>
       </c>
       <c r="U44" t="n">
         <v>1444.188505839173</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.1747367765829</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="C45" t="n">
-        <v>392.7624625095466</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="D45" t="n">
-        <v>231.9823462705783</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="E45" t="n">
-        <v>189.5788810367833</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="F45" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="G45" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="H45" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="I45" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="J45" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="K45" t="n">
-        <v>68.15819651378459</v>
+        <v>68.15819651378457</v>
       </c>
       <c r="L45" t="n">
-        <v>186.8945068160898</v>
+        <v>186.8945068160897</v>
       </c>
       <c r="M45" t="n">
         <v>370.2088447263874</v>
@@ -7758,19 +7758,19 @@
         <v>794.8929656043382</v>
       </c>
       <c r="U45" t="n">
-        <v>794.5756835846319</v>
+        <v>555.2690868421514</v>
       </c>
       <c r="V45" t="n">
-        <v>790.8025622307464</v>
+        <v>477.0855869506712</v>
       </c>
       <c r="W45" t="n">
-        <v>760.7105897035181</v>
+        <v>207.6870176809625</v>
       </c>
       <c r="X45" t="n">
-        <v>760.7105897035181</v>
+        <v>207.6870176809625</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7105897035181</v>
+        <v>207.6870176809625</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="C46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="D46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="E46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="F46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="G46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="H46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="I46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="J46" t="n">
-        <v>29.15116475402743</v>
+        <v>143.631355020656</v>
       </c>
       <c r="K46" t="n">
-        <v>29.15116475402743</v>
+        <v>143.631355020656</v>
       </c>
       <c r="L46" t="n">
-        <v>29.15116475402743</v>
+        <v>143.631355020656</v>
       </c>
       <c r="M46" t="n">
-        <v>29.15116475402743</v>
+        <v>143.631355020656</v>
       </c>
       <c r="N46" t="n">
-        <v>29.15116475402743</v>
+        <v>143.631355020656</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6313550206561</v>
+        <v>143.631355020656</v>
       </c>
       <c r="P46" t="n">
-        <v>143.6313550206561</v>
+        <v>143.631355020656</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.6313550206561</v>
+        <v>143.631355020656</v>
       </c>
       <c r="R46" t="n">
-        <v>143.6313550206561</v>
+        <v>143.631355020656</v>
       </c>
       <c r="S46" t="n">
-        <v>143.6313550206561</v>
+        <v>143.631355020656</v>
       </c>
       <c r="T46" t="n">
-        <v>143.6313550206561</v>
+        <v>143.631355020656</v>
       </c>
       <c r="U46" t="n">
-        <v>91.3659735658194</v>
+        <v>91.36597356581937</v>
       </c>
       <c r="V46" t="n">
-        <v>83.08770648562313</v>
+        <v>83.0877064856231</v>
       </c>
       <c r="W46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="X46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.15116475402743</v>
+        <v>29.15116475402741</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8769,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>131.9724314025781</v>
       </c>
       <c r="L12" t="n">
-        <v>207.190584851265</v>
+        <v>120.3688767846161</v>
       </c>
       <c r="M12" t="n">
-        <v>161.6287953380623</v>
+        <v>203.4325914874594</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9411186424747</v>
+        <v>186.3600727412996</v>
       </c>
       <c r="O12" t="n">
         <v>207.4598856512404</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>131.9724314025781</v>
       </c>
       <c r="L15" t="n">
-        <v>207.190584851265</v>
+        <v>120.3688767846161</v>
       </c>
       <c r="M15" t="n">
-        <v>116.6108834208104</v>
+        <v>203.4325914874594</v>
       </c>
       <c r="N15" t="n">
-        <v>146.9590305597266</v>
+        <v>188.7628267091237</v>
       </c>
       <c r="O15" t="n">
         <v>207.4598856512404</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>203.9611201108552</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,13 +9246,13 @@
         <v>131.9724314025781</v>
       </c>
       <c r="L18" t="n">
-        <v>207.190584851265</v>
+        <v>120.3688767846161</v>
       </c>
       <c r="M18" t="n">
-        <v>116.6108834208104</v>
+        <v>201.0298375196353</v>
       </c>
       <c r="N18" t="n">
-        <v>186.3600727412995</v>
+        <v>188.7628267091237</v>
       </c>
       <c r="O18" t="n">
         <v>207.4598856512404</v>
@@ -9483,13 +9483,13 @@
         <v>131.9724314025781</v>
       </c>
       <c r="L21" t="n">
-        <v>204.7878308834408</v>
+        <v>120.3688767846161</v>
       </c>
       <c r="M21" t="n">
-        <v>116.6108834208104</v>
+        <v>203.4325914874594</v>
       </c>
       <c r="N21" t="n">
-        <v>188.7628267091237</v>
+        <v>186.3600727412996</v>
       </c>
       <c r="O21" t="n">
         <v>207.4598856512404</v>
@@ -9723,16 +9723,16 @@
         <v>207.190584851265</v>
       </c>
       <c r="M24" t="n">
-        <v>203.4325914874593</v>
+        <v>161.6287953380623</v>
       </c>
       <c r="N24" t="n">
-        <v>188.7628267091237</v>
+        <v>101.9411186424747</v>
       </c>
       <c r="O24" t="n">
-        <v>164.5508956689948</v>
+        <v>207.4598856512404</v>
       </c>
       <c r="P24" t="n">
-        <v>120.6473598448789</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.02772447863923</v>
+        <v>170.598241355147</v>
       </c>
       <c r="C11" t="n">
-        <v>146.7164983584924</v>
+        <v>146.7164983584925</v>
       </c>
       <c r="D11" t="n">
-        <v>134.2831606195409</v>
+        <v>50.71264374303333</v>
       </c>
       <c r="E11" t="n">
-        <v>167.9899130389497</v>
+        <v>167.9899130389498</v>
       </c>
       <c r="F11" t="n">
         <v>199.7102506173271</v>
@@ -23273,7 +23273,7 @@
         <v>128.5152636980868</v>
       </c>
       <c r="H11" t="n">
-        <v>143.4074340588271</v>
+        <v>143.4074340588272</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.66056629594522</v>
+        <v>46.66056629594528</v>
       </c>
       <c r="V11" t="n">
-        <v>117.3907845864656</v>
+        <v>30.56907651981669</v>
       </c>
       <c r="W11" t="n">
         <v>134.4074648030805</v>
       </c>
       <c r="X11" t="n">
-        <v>156.2937152720197</v>
+        <v>156.2937152720198</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.97486032911456</v>
+        <v>178.7965683957635</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.5982413551471</v>
+        <v>170.598241355147</v>
       </c>
       <c r="C14" t="n">
-        <v>59.89479029184363</v>
+        <v>146.7164983584925</v>
       </c>
       <c r="D14" t="n">
-        <v>97.37321003897921</v>
+        <v>134.2831606195409</v>
       </c>
       <c r="E14" t="n">
-        <v>167.9899130389499</v>
+        <v>167.9899130389498</v>
       </c>
       <c r="F14" t="n">
-        <v>199.7102506173272</v>
+        <v>123.2376901522228</v>
       </c>
       <c r="G14" t="n">
-        <v>128.515263698087</v>
+        <v>215.3369717647358</v>
       </c>
       <c r="H14" t="n">
-        <v>143.4074340588273</v>
+        <v>56.58572599217823</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>37.0503458323752</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.749938467791</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.92346735507948</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.66056629594528</v>
       </c>
       <c r="V14" t="n">
-        <v>117.3907845864657</v>
+        <v>30.56907651981669</v>
       </c>
       <c r="W14" t="n">
-        <v>134.4074648030806</v>
+        <v>134.4074648030805</v>
       </c>
       <c r="X14" t="n">
-        <v>156.2937152720199</v>
+        <v>156.2937152720198</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.7965683957636</v>
+        <v>91.97486032911456</v>
       </c>
     </row>
     <row r="15">
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>8.970602038971265e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>970585.3127897714</v>
+        <v>970585.3127897712</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970585.312789771</v>
+        <v>970585.3127897712</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1121071.673377042</v>
+        <v>1121071.673377041</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529159.1971058756</v>
+        <v>529159.1971058757</v>
       </c>
       <c r="C2" t="n">
         <v>529159.1971058756</v>
       </c>
       <c r="D2" t="n">
-        <v>529159.1971058756</v>
+        <v>529159.1971058757</v>
       </c>
       <c r="E2" t="n">
-        <v>455994.0534122876</v>
+        <v>455994.0534122875</v>
       </c>
       <c r="F2" t="n">
-        <v>455994.0534122873</v>
+        <v>455994.0534122875</v>
       </c>
       <c r="G2" t="n">
         <v>530231.1293151212</v>
@@ -26332,28 +26332,28 @@
         <v>530231.1293151213</v>
       </c>
       <c r="I2" t="n">
+        <v>530231.1293151212</v>
+      </c>
+      <c r="J2" t="n">
+        <v>530231.1293151223</v>
+      </c>
+      <c r="K2" t="n">
+        <v>530231.1293151223</v>
+      </c>
+      <c r="L2" t="n">
+        <v>530231.1293151219</v>
+      </c>
+      <c r="M2" t="n">
         <v>530231.1293151213</v>
       </c>
-      <c r="J2" t="n">
-        <v>530231.1293151221</v>
-      </c>
-      <c r="K2" t="n">
-        <v>530231.1293151225</v>
-      </c>
-      <c r="L2" t="n">
-        <v>530231.129315122</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>530231.1293151212</v>
-      </c>
-      <c r="N2" t="n">
-        <v>530231.1293151214</v>
       </c>
       <c r="O2" t="n">
         <v>530231.1293151212</v>
       </c>
       <c r="P2" t="n">
-        <v>530231.1293151212</v>
+        <v>530231.1293151211</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272434.2066155726</v>
+        <v>272434.2066155725</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>104848.2026895067</v>
+        <v>104848.2026895066</v>
       </c>
       <c r="H3" t="n">
         <v>4.547473508864641e-11</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>104848.2026895067</v>
+        <v>104848.2026895066</v>
       </c>
       <c r="M3" t="n">
-        <v>19259.37825850237</v>
+        <v>19259.37825850235</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65423.24367203553</v>
+        <v>65423.2436720355</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>372146.52742783</v>
       </c>
       <c r="F4" t="n">
-        <v>372146.5274278299</v>
+        <v>372146.52742783</v>
       </c>
       <c r="G4" t="n">
-        <v>442672.8937875655</v>
+        <v>442672.8937875656</v>
       </c>
       <c r="H4" t="n">
-        <v>442672.8937875655</v>
+        <v>442672.8937875656</v>
       </c>
       <c r="I4" t="n">
         <v>442672.8937875655</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24657.58202785256</v>
+        <v>24657.58202785255</v>
       </c>
       <c r="F5" t="n">
-        <v>24657.58202785254</v>
+        <v>24657.58202785255</v>
       </c>
       <c r="G5" t="n">
         <v>35675.68646773272</v>
@@ -26503,13 +26503,13 @@
         <v>44343.67435035107</v>
       </c>
       <c r="N5" t="n">
-        <v>44343.67435035108</v>
+        <v>44343.67435035107</v>
       </c>
       <c r="O5" t="n">
-        <v>44343.67435035107</v>
+        <v>44343.67435035106</v>
       </c>
       <c r="P5" t="n">
-        <v>44343.67435035107</v>
+        <v>44343.67435035106</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17700.93357560025</v>
+        <v>17696.46719139518</v>
       </c>
       <c r="C6" t="n">
-        <v>17700.93357560025</v>
+        <v>17696.46719139506</v>
       </c>
       <c r="D6" t="n">
-        <v>17700.93357560025</v>
+        <v>17696.46719139518</v>
       </c>
       <c r="E6" t="n">
-        <v>-213244.2626589675</v>
+        <v>-213553.5838085627</v>
       </c>
       <c r="F6" t="n">
-        <v>59189.9439566048</v>
+        <v>58880.62280700983</v>
       </c>
       <c r="G6" t="n">
-        <v>-52965.65362968372</v>
+        <v>-52965.65362968366</v>
       </c>
       <c r="H6" t="n">
-        <v>51882.54905982308</v>
+        <v>51882.54905982302</v>
       </c>
       <c r="I6" t="n">
-        <v>51882.54905982308</v>
+        <v>51882.54905982297</v>
       </c>
       <c r="J6" t="n">
-        <v>-120387.8023029353</v>
+        <v>-120387.8023029352</v>
       </c>
       <c r="K6" t="n">
-        <v>40375.78325538493</v>
+        <v>40375.78325538464</v>
       </c>
       <c r="L6" t="n">
         <v>-64472.41943412223</v>
       </c>
       <c r="M6" t="n">
-        <v>24760.60387928764</v>
+        <v>24760.60387928775</v>
       </c>
       <c r="N6" t="n">
-        <v>44019.9821377902</v>
+        <v>44019.98213778992</v>
       </c>
       <c r="O6" t="n">
-        <v>-21403.26153424555</v>
+        <v>-21403.26153424553</v>
       </c>
       <c r="P6" t="n">
-        <v>44019.98213778991</v>
+        <v>44019.98213778987</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>203.4889990226864</v>
       </c>
       <c r="F2" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G2" t="n">
         <v>334.5492523845696</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="F4" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="G4" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="H4" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="I4" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="J4" t="n">
         <v>451.2112674919916</v>
@@ -26823,13 +26823,13 @@
         <v>364.3895594253427</v>
       </c>
       <c r="N4" t="n">
-        <v>364.3895594253429</v>
+        <v>364.3895594253427</v>
       </c>
       <c r="O4" t="n">
-        <v>364.3895594253429</v>
+        <v>364.3895594253427</v>
       </c>
       <c r="P4" t="n">
-        <v>364.3895594253429</v>
+        <v>364.3895594253427</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.0602533618834</v>
+        <v>131.0602533618833</v>
       </c>
       <c r="H2" t="n">
         <v>5.684341886080801e-14</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.77905459004447</v>
+        <v>81.77905459004441</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.0602533618834</v>
+        <v>131.0602533618833</v>
       </c>
       <c r="M2" t="n">
-        <v>24.07422282312797</v>
+        <v>24.07422282312794</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004441</v>
+        <v>81.77905459004438</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.0602533618834</v>
+        <v>131.0602533618833</v>
       </c>
       <c r="M2" t="n">
         <v>5.684341886080801e-14</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004447</v>
+        <v>81.77905459004441</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>203.4889990226864</v>
       </c>
       <c r="J11" t="n">
-        <v>75.74597459497524</v>
+        <v>162.5676826616242</v>
       </c>
       <c r="K11" t="n">
-        <v>5.17502969935007</v>
+        <v>14.30428750512019</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28132,10 +28132,10 @@
         <v>13.33728430081825</v>
       </c>
       <c r="Q11" t="n">
-        <v>174.9710567299818</v>
+        <v>88.3940393874457</v>
       </c>
       <c r="R11" t="n">
-        <v>203.4889990226864</v>
+        <v>194.1150504928036</v>
       </c>
       <c r="S11" t="n">
         <v>203.4889990226864</v>
@@ -28172,7 +28172,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>72.35060700992958</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28190,7 +28190,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.85834769223184</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.036068026875132</v>
       </c>
       <c r="R12" t="n">
         <v>134.3144462547807</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4695228506099</v>
+        <v>120.6425053610219</v>
       </c>
       <c r="T12" t="n">
-        <v>194.2672336531898</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U12" t="n">
         <v>203.4889990226864</v>
@@ -28229,13 +28229,13 @@
         <v>203.4889990226864</v>
       </c>
       <c r="W12" t="n">
-        <v>179.8828755103627</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X12" t="n">
         <v>203.4889990226864</v>
       </c>
       <c r="Y12" t="n">
-        <v>136.5625780673767</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="13">
@@ -28254,7 +28254,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28269,10 +28269,10 @@
         <v>203.4889990226864</v>
       </c>
       <c r="J13" t="n">
-        <v>203.4889990226864</v>
+        <v>119.8526328486804</v>
       </c>
       <c r="K13" t="n">
-        <v>108.1638035243326</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L13" t="n">
         <v>31.33805968349144</v>
@@ -28284,7 +28284,7 @@
         <v>15.68256630572603</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70523308254135</v>
+        <v>100.2984831935079</v>
       </c>
       <c r="P13" t="n">
         <v>57.81660688993937</v>
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="C14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="D14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="E14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="H14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="I14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74597459497524</v>
+        <v>162.5676826616242</v>
       </c>
       <c r="K14" t="n">
         <v>5.17502969935007</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>99.91430164335446</v>
+        <v>13.33728430081825</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.3940393874457</v>
+        <v>97.52329719321585</v>
       </c>
       <c r="R14" t="n">
-        <v>203.4889990226863</v>
+        <v>194.1150504928036</v>
       </c>
       <c r="S14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="15">
@@ -28409,10 +28409,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>146.2397133060975</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>85.00586377315071</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.49273818813177</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S15" t="n">
         <v>191.4695228506099</v>
       </c>
       <c r="T15" t="n">
-        <v>190.556397252206</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="16">
@@ -28482,22 +28482,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F16" t="n">
-        <v>182.3027376592127</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6953014514208</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="H16" t="n">
         <v>165.7757334795251</v>
@@ -28509,10 +28509,10 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K16" t="n">
-        <v>66.3940617769113</v>
+        <v>75.38275360277429</v>
       </c>
       <c r="L16" t="n">
-        <v>118.1597677501403</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M16" t="n">
         <v>24.35887319852012</v>
@@ -28521,37 +28521,37 @@
         <v>15.68256630572603</v>
       </c>
       <c r="O16" t="n">
-        <v>123.5269411491903</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P16" t="n">
-        <v>144.6383149565883</v>
+        <v>57.81660688993937</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.7586570094679</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="R16" t="n">
-        <v>203.1838537831904</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="S16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="17">
@@ -28609,13 +28609,13 @@
         <v>88.3940393874457</v>
       </c>
       <c r="R17" t="n">
-        <v>194.1150504928036</v>
+        <v>276.3965475898052</v>
       </c>
       <c r="S17" t="n">
         <v>227.2389374904774</v>
       </c>
       <c r="T17" t="n">
-        <v>304.6939634747671</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495653186316</v>
@@ -28640,22 +28640,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>89.92878633101677</v>
       </c>
       <c r="C18" t="n">
-        <v>100.696443457717</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>140.5941703305811</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>72.00173105327937</v>
       </c>
       <c r="G18" t="n">
-        <v>61.9163676686575</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H18" t="n">
         <v>125.6724707086533</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.036068026875132</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.3144462547807</v>
@@ -28700,10 +28700,10 @@
         <v>237.2276399745649</v>
       </c>
       <c r="V18" t="n">
-        <v>216.0347081425297</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>179.8828755103627</v>
+        <v>179.8828755103626</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28849,13 +28849,13 @@
         <v>194.1150504928036</v>
       </c>
       <c r="S20" t="n">
-        <v>309.5204345874786</v>
+        <v>227.2389374904774</v>
       </c>
       <c r="T20" t="n">
         <v>222.4124663777658</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495653186316</v>
+        <v>332.4310624156331</v>
       </c>
       <c r="V20" t="n">
         <v>334.5492523845697</v>
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>100.696443457717</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28889,16 +28889,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>140.2452943739309</v>
       </c>
       <c r="G21" t="n">
         <v>148.7380757353064</v>
       </c>
       <c r="H21" t="n">
-        <v>125.6724707086533</v>
+        <v>38.85076264200437</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1386269945785</v>
+        <v>20.31691892792956</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.49273818813177</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S21" t="n">
-        <v>104.647814783961</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T21" t="n">
-        <v>196.3664634584602</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U21" t="n">
         <v>237.2276399745649</v>
@@ -28940,7 +28940,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>179.8828755103627</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -29089,10 +29089,10 @@
         <v>227.2389374904774</v>
       </c>
       <c r="T23" t="n">
-        <v>304.6939634747671</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1495653186316</v>
+        <v>332.4310624156329</v>
       </c>
       <c r="V23" t="n">
         <v>334.5492523845697</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.92878633101682</v>
+        <v>158.1723496516684</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29135,10 +29135,10 @@
         <v>125.6724707086533</v>
       </c>
       <c r="I24" t="n">
-        <v>20.31691892792961</v>
+        <v>107.1386269945785</v>
       </c>
       <c r="J24" t="n">
-        <v>51.85834769223184</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>47.49273818813177</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4695228506099</v>
+        <v>104.6478147839609</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9446082044576</v>
+        <v>128.1229001378086</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276399745649</v>
+        <v>150.405931907916</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>146.8764220012414</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29311,7 +29311,7 @@
         <v>212.8393079519277</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519286</v>
       </c>
       <c r="P26" t="n">
         <v>212.8393079519277</v>
@@ -29320,7 +29320,7 @@
         <v>212.8393079519277</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8393079519287</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="S26" t="n">
         <v>212.8393079519277</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7380757353064</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.036068026875132</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S27" t="n">
         <v>191.4695228506099</v>
@@ -29414,13 +29414,13 @@
         <v>212.8393079519277</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>162.44408566727</v>
       </c>
       <c r="X27" t="n">
-        <v>118.6500044014356</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8393079519277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,13 +29430,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>204.901903988783</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29460,10 +29460,10 @@
         <v>66.3940617769113</v>
       </c>
       <c r="L28" t="n">
-        <v>212.8393079519277</v>
+        <v>31.33805968349144</v>
       </c>
       <c r="M28" t="n">
-        <v>70.262043877531</v>
+        <v>24.35887319852012</v>
       </c>
       <c r="N28" t="n">
         <v>15.68256630572603</v>
@@ -29475,7 +29475,7 @@
         <v>57.81660688993937</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.7586570094679</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="R28" t="n">
         <v>212.8393079519277</v>
@@ -29542,10 +29542,10 @@
         <v>212.8393079519277</v>
       </c>
       <c r="M29" t="n">
+        <v>212.8393079519289</v>
+      </c>
+      <c r="N29" t="n">
         <v>212.8393079519277</v>
-      </c>
-      <c r="N29" t="n">
-        <v>212.8393079519288</v>
       </c>
       <c r="O29" t="n">
         <v>212.8393079519277</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>47.36712281009704</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7380757353064</v>
@@ -29636,19 +29636,19 @@
         <v>6.036068026875132</v>
       </c>
       <c r="R30" t="n">
-        <v>116.5653077008046</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U30" t="n">
         <v>212.8393079519277</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W30" t="n">
         <v>212.8393079519277</v>
@@ -29667,13 +29667,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="D31" t="n">
-        <v>212.8393079519277</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29685,16 +29685,16 @@
         <v>168.6953014514208</v>
       </c>
       <c r="H31" t="n">
-        <v>194.0413315643702</v>
+        <v>165.7757334795251</v>
       </c>
       <c r="I31" t="n">
+        <v>173.6984783993058</v>
+      </c>
+      <c r="J31" t="n">
+        <v>119.8526328486804</v>
+      </c>
+      <c r="K31" t="n">
         <v>212.8393079519277</v>
-      </c>
-      <c r="J31" t="n">
-        <v>212.8393079519277</v>
-      </c>
-      <c r="K31" t="n">
-        <v>66.3940617769113</v>
       </c>
       <c r="L31" t="n">
         <v>31.33805968349144</v>
@@ -29831,13 +29831,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7380757353064</v>
@@ -29846,7 +29846,7 @@
         <v>125.6724707086533</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1386269945785</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>51.85834769223184</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.036068026875132</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S33" t="n">
         <v>191.4695228506099</v>
@@ -29882,16 +29882,16 @@
         <v>212.8393079519277</v>
       </c>
       <c r="U33" t="n">
-        <v>137.9350928021223</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V33" t="n">
         <v>212.8393079519277</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>180.9400517012465</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y33" t="n">
         <v>212.8393079519277</v>
@@ -29913,22 +29913,22 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.8393079519277</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>212.8393079519277</v>
+        <v>168.6953014514208</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8393079519277</v>
+        <v>165.7757334795251</v>
       </c>
       <c r="I34" t="n">
         <v>164.6883657250528</v>
       </c>
       <c r="J34" t="n">
-        <v>119.8526328486804</v>
+        <v>192.2343507341392</v>
       </c>
       <c r="K34" t="n">
         <v>66.3940617769113</v>
@@ -29943,16 +29943,16 @@
         <v>15.68256630572603</v>
       </c>
       <c r="O34" t="n">
-        <v>111.3943584861135</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P34" t="n">
-        <v>57.81660688993937</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7586570094679</v>
       </c>
       <c r="R34" t="n">
-        <v>203.1838537831904</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="S34" t="n">
         <v>212.8393079519277</v>
@@ -30007,22 +30007,22 @@
         <v>236.9135307750556</v>
       </c>
       <c r="J35" t="n">
-        <v>126.1180447692257</v>
+        <v>120.9430150698756</v>
       </c>
       <c r="K35" t="n">
-        <v>236.9135307750556</v>
+        <v>5.17502969935007</v>
       </c>
       <c r="L35" t="n">
-        <v>236.9135307750556</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>236.9135307750556</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="P35" t="n">
         <v>236.9135307750556</v>
@@ -30068,10 +30068,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30086,7 +30086,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J36" t="n">
-        <v>51.85834769223184</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,16 +30110,16 @@
         <v>6.036068026875132</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T36" t="n">
         <v>214.9446082044576</v>
       </c>
       <c r="U36" t="n">
-        <v>220.6613944344043</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="V36" t="n">
         <v>236.9135307750556</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>40.82212916256822</v>
       </c>
     </row>
     <row r="37">
@@ -30168,7 +30168,7 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K37" t="n">
-        <v>66.3940617769113</v>
+        <v>182.0306176017886</v>
       </c>
       <c r="L37" t="n">
         <v>31.33805968349144</v>
@@ -30180,7 +30180,7 @@
         <v>15.68256630572603</v>
       </c>
       <c r="O37" t="n">
-        <v>152.3417889074186</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P37" t="n">
         <v>57.81660688993937</v>
@@ -30247,7 +30247,7 @@
         <v>236.9135307750556</v>
       </c>
       <c r="K38" t="n">
-        <v>5.17502969935007</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,25 +30256,25 @@
         <v>236.9135307750556</v>
       </c>
       <c r="N38" t="n">
-        <v>236.9135307750556</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.9135307750556</v>
+        <v>126.1180447692256</v>
       </c>
       <c r="P38" t="n">
         <v>236.9135307750556</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.2425597494181</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="R38" t="n">
-        <v>194.1150504928036</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="S38" t="n">
         <v>236.9135307750556</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4124663777658</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="U38" t="n">
         <v>236.9135307750556</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7380757353064</v>
@@ -30323,7 +30323,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J39" t="n">
-        <v>51.85834769223184</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>236.9135307750556</v>
       </c>
       <c r="W39" t="n">
-        <v>112.1903397684844</v>
+        <v>5.225248340787914</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>189.0674496948969</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30393,10 +30393,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>236.9135307750556</v>
+        <v>168.6953014514208</v>
       </c>
       <c r="H40" t="n">
-        <v>213.1940599807674</v>
+        <v>165.7757334795251</v>
       </c>
       <c r="I40" t="n">
         <v>164.6883657250528</v>
@@ -30426,7 +30426,7 @@
         <v>126.7586570094679</v>
       </c>
       <c r="R40" t="n">
-        <v>203.1838537831904</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="S40" t="n">
         <v>235.3426566118387</v>
@@ -30484,16 +30484,16 @@
         <v>236.9135307750556</v>
       </c>
       <c r="K41" t="n">
+        <v>178.5911183360561</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>236.9135307750556</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>126.1180447692266</v>
       </c>
       <c r="O41" t="n">
         <v>236.9135307750556</v>
@@ -30505,10 +30505,10 @@
         <v>236.9135307750556</v>
       </c>
       <c r="R41" t="n">
-        <v>236.9135307750556</v>
+        <v>194.1150504928036</v>
       </c>
       <c r="S41" t="n">
-        <v>236.9135307750556</v>
+        <v>227.2389374904774</v>
       </c>
       <c r="T41" t="n">
         <v>236.9135307750556</v>
@@ -30536,16 +30536,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30584,7 +30584,7 @@
         <v>6.036068026875132</v>
       </c>
       <c r="R42" t="n">
-        <v>51.81521229367699</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S42" t="n">
         <v>191.4695228506099</v>
@@ -30599,10 +30599,10 @@
         <v>236.9135307750556</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>207.9382329134697</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>195.2668279332366</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>207.658402057691</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="G43" t="n">
         <v>168.6953014514208</v>
@@ -30663,13 +30663,13 @@
         <v>126.7586570094679</v>
       </c>
       <c r="R43" t="n">
-        <v>236.9135307750556</v>
+        <v>203.1838537831904</v>
       </c>
       <c r="S43" t="n">
         <v>235.3426566118387</v>
       </c>
       <c r="T43" t="n">
-        <v>236.9135307750556</v>
+        <v>223.7381717812877</v>
       </c>
       <c r="U43" t="n">
         <v>236.9135307750556</v>
@@ -30718,19 +30718,19 @@
         <v>236.9135307750556</v>
       </c>
       <c r="J44" t="n">
+        <v>130.6176083544539</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5.17502969935007</v>
+      </c>
+      <c r="L44" t="n">
         <v>236.9135307750556</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>236.9135307750556</v>
-      </c>
-      <c r="L44" t="n">
-        <v>126.1180447692266</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>236.9135307750556</v>
@@ -30745,7 +30745,7 @@
         <v>236.9135307750556</v>
       </c>
       <c r="S44" t="n">
-        <v>236.9135307750556</v>
+        <v>227.2389374904774</v>
       </c>
       <c r="T44" t="n">
         <v>236.9135307750556</v>
@@ -30776,16 +30776,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>129.8481412583426</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7380757353064</v>
@@ -30830,13 +30830,13 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U45" t="n">
-        <v>236.9135307750556</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>236.9135307750556</v>
+        <v>163.2472560228368</v>
       </c>
       <c r="W45" t="n">
-        <v>236.9135307750556</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30876,7 +30876,7 @@
         <v>164.6883657250528</v>
       </c>
       <c r="J46" t="n">
-        <v>119.8526328486804</v>
+        <v>235.4891886735578</v>
       </c>
       <c r="K46" t="n">
         <v>66.3940617769113</v>
@@ -30891,7 +30891,7 @@
         <v>15.68256630572603</v>
       </c>
       <c r="O46" t="n">
-        <v>152.3417889074188</v>
+        <v>36.70523308254135</v>
       </c>
       <c r="P46" t="n">
         <v>57.81660688993937</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>9.12925780577012</v>
       </c>
       <c r="L11" t="n">
         <v>49.11836494962078</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.57701734253611</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.37394852988281</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.40104218157289</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>45.01791191725185</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>84.4189540988249</v>
       </c>
       <c r="O12" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="P12" t="n">
         <v>85.71651423380041</v>
@@ -35541,16 +35541,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.87207835771832</v>
+        <v>25.87207835771827</v>
       </c>
       <c r="C13" t="n">
-        <v>37.03181805071407</v>
+        <v>37.03181805071401</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.81285781046137</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35562,13 +35562,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>38.80063329763357</v>
+        <v>38.80063329763351</v>
       </c>
       <c r="J13" t="n">
-        <v>83.63636617400604</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>41.76974174742125</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>63.59325011096658</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.73034201321855</v>
+        <v>76.73034201321849</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>36.6222269205328</v>
       </c>
       <c r="P14" t="n">
-        <v>86.57701734253622</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.12925780577015</v>
       </c>
       <c r="R14" t="n">
-        <v>9.373948529882668</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.40104218157289</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="N15" t="n">
-        <v>45.01791191725185</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="O15" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="P15" t="n">
-        <v>85.71651423380041</v>
+        <v>83.31376026597628</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,22 +35778,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.87207835771827</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.03181805071401</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.30634877197565</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.81285781046137</v>
       </c>
       <c r="F16" t="n">
-        <v>43.37585544076604</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>34.79369757126555</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8.988691825862988</v>
       </c>
       <c r="L16" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35817,16 +35817,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>76.73034201321849</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.3051452394959284</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35905,13 +35905,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>82.28149709700152</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>82.28149709700129</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>84.4189540988249</v>
       </c>
       <c r="N18" t="n">
-        <v>84.41895409882474</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="O18" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="P18" t="n">
         <v>85.71651423380041</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.28149709700124</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>82.28149709700146</v>
       </c>
       <c r="V20" t="n">
         <v>13.66946877541767</v>
@@ -36203,16 +36203,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>84.41895409882474</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="N21" t="n">
-        <v>86.82170806664891</v>
+        <v>84.4189540988249</v>
       </c>
       <c r="O21" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664897</v>
       </c>
       <c r="P21" t="n">
         <v>85.71651423380041</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>82.28149709700124</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>82.28149709700129</v>
       </c>
       <c r="V23" t="n">
         <v>13.66946877541767</v>
@@ -36440,19 +36440,19 @@
         <v>39.40104218157289</v>
       </c>
       <c r="L24" t="n">
-        <v>86.82170806664891</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="M24" t="n">
-        <v>86.82170806664891</v>
+        <v>45.01791191725185</v>
       </c>
       <c r="N24" t="n">
-        <v>86.82170806664891</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>43.91271808440332</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.71651423380041</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>291.1053535281501</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4615348724605</v>
+        <v>249.4615348724614</v>
       </c>
       <c r="P26" t="n">
         <v>199.5020236511095</v>
@@ -36616,7 +36616,7 @@
         <v>124.445268564482</v>
       </c>
       <c r="R26" t="n">
-        <v>18.7242574591251</v>
+        <v>18.72425745912413</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,13 +36726,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.22238728695964</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.38212697995539</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>59.71925373807227</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36756,10 +36756,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.5012482684363</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>45.90317067901088</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.08065094245987</v>
       </c>
       <c r="R28" t="n">
         <v>9.655454168737307</v>
@@ -36838,10 +36838,10 @@
         <v>261.9576729015485</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6605890990558</v>
+        <v>296.6605890990569</v>
       </c>
       <c r="N29" t="n">
-        <v>291.1053535281512</v>
+        <v>291.1053535281501</v>
       </c>
       <c r="O29" t="n">
         <v>249.4615348724605</v>
@@ -36963,13 +36963,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.22238728695964</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.38212697995539</v>
       </c>
       <c r="D31" t="n">
-        <v>67.65665770121703</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36981,16 +36981,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>28.26559808484517</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.15094222687489</v>
+        <v>9.010112674252985</v>
       </c>
       <c r="J31" t="n">
-        <v>92.98667510324736</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4452461750165</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37209,22 +37209,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.16316673970275</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.14400650050693</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.06357447240267</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.38171788545883</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37239,16 +37239,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>74.68912540357212</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.0227010619884</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.655454168737307</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>50.37207017425045</v>
+        <v>45.19704047490033</v>
       </c>
       <c r="K35" t="n">
-        <v>231.7385010757056</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>286.0318957246764</v>
+        <v>49.11836494962078</v>
       </c>
       <c r="M35" t="n">
         <v>320.7348119221837</v>
       </c>
       <c r="N35" t="n">
-        <v>78.26604557622241</v>
+        <v>315.179576351278</v>
       </c>
       <c r="O35" t="n">
-        <v>36.6222269205328</v>
+        <v>273.5357576955884</v>
       </c>
       <c r="P35" t="n">
         <v>223.5762464742374</v>
@@ -37327,13 +37327,13 @@
         <v>148.5194913876099</v>
       </c>
       <c r="R35" t="n">
-        <v>42.79848028225204</v>
+        <v>42.79848028225202</v>
       </c>
       <c r="S35" t="n">
-        <v>9.674593284578291</v>
+        <v>9.674593284578263</v>
       </c>
       <c r="T35" t="n">
-        <v>14.50106439728981</v>
+        <v>14.50106439728978</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>115.6365558248773</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>115.6365558248772</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>161.1675561800804</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L38" t="n">
         <v>49.11836494962078</v>
@@ -37552,25 +37552,25 @@
         <v>320.7348119221837</v>
       </c>
       <c r="N38" t="n">
-        <v>315.1795763512781</v>
+        <v>78.26604557622241</v>
       </c>
       <c r="O38" t="n">
-        <v>273.5357576955885</v>
+        <v>162.7402716897584</v>
       </c>
       <c r="P38" t="n">
         <v>223.5762464742374</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.84852036197238</v>
+        <v>148.5194913876099</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.79848028225202</v>
       </c>
       <c r="S38" t="n">
-        <v>9.674593284578291</v>
+        <v>9.674593284578263</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>14.50106439728978</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>59.29661011008753</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>22.61026872292459</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37689,10 +37689,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.21822932363484</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.41832650124238</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>33.72967699186519</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>161.1675561800803</v>
       </c>
       <c r="K41" t="n">
-        <v>231.7385010757055</v>
+        <v>173.416088636706</v>
       </c>
       <c r="L41" t="n">
         <v>49.11836494962078</v>
@@ -37789,7 +37789,7 @@
         <v>83.82128114712808</v>
       </c>
       <c r="N41" t="n">
-        <v>204.384090345449</v>
+        <v>315.179576351278</v>
       </c>
       <c r="O41" t="n">
         <v>273.5357576955884</v>
@@ -37801,10 +37801,10 @@
         <v>148.5194913876099</v>
       </c>
       <c r="R41" t="n">
-        <v>42.79848028225199</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.674593284578235</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>14.50106439728976</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>17.64990726826845</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.73151983924437</v>
+        <v>97.98664855660894</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>33.72967699186516</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>13.17535899376787</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>161.1675561800803</v>
+        <v>54.87163375947867</v>
       </c>
       <c r="K44" t="n">
-        <v>231.7385010757055</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>175.2364097188473</v>
+        <v>286.0318957246764</v>
       </c>
       <c r="M44" t="n">
         <v>83.82128114712808</v>
       </c>
       <c r="N44" t="n">
-        <v>78.26604557622241</v>
+        <v>315.179576351278</v>
       </c>
       <c r="O44" t="n">
         <v>273.5357576955884</v>
@@ -38041,7 +38041,7 @@
         <v>42.79848028225199</v>
       </c>
       <c r="S44" t="n">
-        <v>9.674593284578235</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>14.50106439728976</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>115.6365558248774</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>115.6365558248774</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
